--- a/ig/ch-core/StructureDefinition-ch-core-medicationdispense.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationdispense.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-core/StructureDefinition-ch-core-medicationdispense.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationdispense.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -822,7 +822,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1046,10 +1046,10 @@
 </t>
   </si>
   <si>
-    <t>CH Core Dosage</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>How the medication is to be used by the patient or administered by the caregiver</t>
+  </si>
+  <si>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1524,15 +1524,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.61328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1543,26 +1543,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="130.8515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="112.1796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.34375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.83984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/ig/ch-core/StructureDefinition-ch-core-medicationdispense.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationdispense.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -526,7 +526,7 @@
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -579,7 +579,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(DetectedIssue)</t>
+Reference(DetectedIssue|4.0.1)</t>
   </si>
   <si>
     <t>Why a dispense was not performed</t>
@@ -594,7 +594,7 @@
     <t>A code describing why a dispense was not performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -622,7 +622,7 @@
     <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
@@ -647,7 +647,7 @@
     <t>A coded concept identifying which substance or product can be dispensed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -696,7 +696,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -715,7 +715,7 @@
     <t>MedicationDispense.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>A code describing the role an individual played in dispensing a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function|4.0.1</t>
   </si>
   <si>
     <t>participation[typeCode=PRF].functionCode</t>
@@ -841,7 +841,7 @@
     <t>MedicationDispense.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -906,7 +906,7 @@
     <t>MedicationDispense.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1)
 </t>
   </si>
   <si>
@@ -1145,7 +1145,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1187,7 +1187,7 @@
     <t>MedicationDispense.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
